--- a/input/general/Appendix_GDP_prognosis_2020-2027.xlsx
+++ b/input/general/Appendix_GDP_prognosis_2020-2027.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7C94F3E-D987-41D6-B197-4A4A05092568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F0046E-CA6C-439B-8DAF-C01B8866CB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix_GDP_prognosis_2020-202" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="211">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Estimates Start After</t>
-  </si>
-  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -630,14 +640,41 @@
   </si>
   <si>
     <t>Average (from 2023 till 2027)</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Percent change</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gross domestic product, constant prices</t>
+  </si>
+  <si>
+    <t>https://www.imf.org/en/Publications/WEO/weo-database/2022/October</t>
+  </si>
+  <si>
+    <t>Unit:</t>
+  </si>
+  <si>
+    <t>Estimation on development of the gross domestic product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1118,7 +1155,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1466,23 +1503,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K199"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1511,47 +1548,41 @@
         <v>2027</v>
       </c>
       <c r="J1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>-2.351</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3">
         <v>-3.4820000000000002</v>
@@ -1577,17 +1608,14 @@
       <c r="I3">
         <v>3.4</v>
       </c>
-      <c r="J3">
-        <v>2020</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="J3" s="1">
         <f>(((1+E3/100)*(1+F3/100)*(1+G3/100)*(1+H3/100)*(1+I3/100))^(1/5)-1)*100</f>
         <v>3.1394633785801984</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>-5.0999999999999996</v>
@@ -1613,17 +1641,14 @@
       <c r="I4">
         <v>1.6919999999999999</v>
       </c>
-      <c r="J4">
-        <v>2021</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4:K67" si="0">(((1+E4/100)*(1+F4/100)*(1+G4/100)*(1+H4/100)*(1+I4/100))^(1/5)-1)*100</f>
+      <c r="J4" s="1">
+        <f>(((1+E4/100)*(1+F4/100)*(1+G4/100)*(1+H4/100)*(1+I4/100))^(1/5)-1)*100</f>
         <v>1.9925565393761779</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>-11.183999999999999</v>
@@ -1649,17 +1674,14 @@
       <c r="I5">
         <v>1.5</v>
       </c>
-      <c r="J5">
-        <v>2021</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" si="0"/>
+      <c r="J5" s="1">
+        <f>(((1+E5/100)*(1+F5/100)*(1+G5/100)*(1+H5/100)*(1+I5/100))^(1/5)-1)*100</f>
         <v>1.9395173771644014</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>-5.75</v>
@@ -1685,17 +1707,14 @@
       <c r="I6">
         <v>3.9249999999999998</v>
       </c>
-      <c r="J6">
-        <v>2021</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
+      <c r="J6" s="1">
+        <f>(((1+E6/100)*(1+F6/100)*(1+G6/100)*(1+H6/100)*(1+I6/100))^(1/5)-1)*100</f>
         <v>3.8709321354974069</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>-20.192</v>
@@ -1721,17 +1740,14 @@
       <c r="I7">
         <v>2.6850000000000001</v>
       </c>
-      <c r="J7">
-        <v>2020</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="0"/>
+      <c r="J7" s="1">
+        <f>(((1+E7/100)*(1+F7/100)*(1+G7/100)*(1+H7/100)*(1+I7/100))^(1/5)-1)*100</f>
         <v>4.0838842467734171</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>-9.9429999999999996</v>
@@ -1757,17 +1773,14 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8">
-        <v>2020</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="0"/>
+      <c r="J8" s="1">
+        <f>(((1+E8/100)*(1+F8/100)*(1+G8/100)*(1+H8/100)*(1+I8/100))^(1/5)-1)*100</f>
         <v>2.0087994600641146</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>-7.3949999999999996</v>
@@ -1793,17 +1806,14 @@
       <c r="I9">
         <v>4.5</v>
       </c>
-      <c r="J9">
-        <v>2021</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="0"/>
+      <c r="J9" s="1">
+        <f>(((1+E9/100)*(1+F9/100)*(1+G9/100)*(1+H9/100)*(1+I9/100))^(1/5)-1)*100</f>
         <v>4.2838950261899988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>-18.585000000000001</v>
@@ -1829,17 +1839,14 @@
       <c r="I10">
         <v>1.18</v>
       </c>
-      <c r="J10">
-        <v>2021</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
+      <c r="J10" s="1">
+        <f>(((1+E10/100)*(1+F10/100)*(1+G10/100)*(1+H10/100)*(1+I10/100))^(1/5)-1)*100</f>
         <v>1.3335333409080219</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>-2.1379999999999999</v>
@@ -1865,17 +1872,14 @@
       <c r="I11">
         <v>2.2789999999999999</v>
       </c>
-      <c r="J11">
-        <v>2021</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
+      <c r="J11" s="1">
+        <f>(((1+E11/100)*(1+F11/100)*(1+G11/100)*(1+H11/100)*(1+I11/100))^(1/5)-1)*100</f>
         <v>2.0266540275533318</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>-6.7350000000000003</v>
@@ -1901,17 +1905,14 @@
       <c r="I12">
         <v>1.7</v>
       </c>
-      <c r="J12">
-        <v>2021</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="0"/>
+      <c r="J12" s="1">
+        <f>(((1+E12/100)*(1+F12/100)*(1+G12/100)*(1+H12/100)*(1+I12/100))^(1/5)-1)*100</f>
         <v>1.6194987396009441</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>-4.1989999999999998</v>
@@ -1937,17 +1938,14 @@
       <c r="I13">
         <v>2.5009999999999999</v>
       </c>
-      <c r="J13">
-        <v>2021</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
+      <c r="J13" s="1">
+        <f>(((1+E13/100)*(1+F13/100)*(1+G13/100)*(1+H13/100)*(1+I13/100))^(1/5)-1)*100</f>
         <v>2.5053971270810882</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>-23.823</v>
@@ -1973,17 +1971,14 @@
       <c r="I14">
         <v>1.4990000000000001</v>
       </c>
-      <c r="J14">
-        <v>2021</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="0"/>
+      <c r="J14" s="1">
+        <f>(((1+E14/100)*(1+F14/100)*(1+G14/100)*(1+H14/100)*(1+I14/100))^(1/5)-1)*100</f>
         <v>2.4043156079286421</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>-4.9359999999999999</v>
@@ -2009,17 +2004,14 @@
       <c r="I15">
         <v>3.048</v>
       </c>
-      <c r="J15">
-        <v>2020</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="0"/>
+      <c r="J15" s="1">
+        <f>(((1+E15/100)*(1+F15/100)*(1+G15/100)*(1+H15/100)*(1+I15/100))^(1/5)-1)*100</f>
         <v>3.0147972598006056</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>3.448</v>
@@ -2045,17 +2037,14 @@
       <c r="I16">
         <v>6.9</v>
       </c>
-      <c r="J16">
-        <v>2022</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="0"/>
+      <c r="J16" s="1">
+        <f>(((1+E16/100)*(1+F16/100)*(1+G16/100)*(1+H16/100)*(1+I16/100))^(1/5)-1)*100</f>
         <v>6.5795224754157555</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>-13.73</v>
@@ -2081,17 +2070,14 @@
       <c r="I17">
         <v>1.84</v>
       </c>
-      <c r="J17">
-        <v>2020</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="0"/>
+      <c r="J17" s="1">
+        <f>(((1+E17/100)*(1+F17/100)*(1+G17/100)*(1+H17/100)*(1+I17/100))^(1/5)-1)*100</f>
         <v>2.9422323235527514</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>-0.67300000000000004</v>
@@ -2117,17 +2103,14 @@
       <c r="I18">
         <v>0.753</v>
       </c>
-      <c r="J18">
-        <v>2020</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="0"/>
+      <c r="J18" s="1">
+        <f>(((1+E18/100)*(1+F18/100)*(1+G18/100)*(1+H18/100)*(1+I18/100))^(1/5)-1)*100</f>
         <v>0.6563923058663379</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>-5.681</v>
@@ -2153,17 +2136,14 @@
       <c r="I19">
         <v>1.19</v>
       </c>
-      <c r="J19">
-        <v>2021</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="0"/>
+      <c r="J19" s="1">
+        <f>(((1+E19/100)*(1+F19/100)*(1+G19/100)*(1+H19/100)*(1+I19/100))^(1/5)-1)*100</f>
         <v>1.0799590923206592</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>-13.676</v>
@@ -2189,17 +2169,14 @@
       <c r="I20">
         <v>2.012</v>
       </c>
-      <c r="J20">
-        <v>2020</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="0"/>
+      <c r="J20" s="1">
+        <f>(((1+E20/100)*(1+F20/100)*(1+G20/100)*(1+H20/100)*(1+I20/100))^(1/5)-1)*100</f>
         <v>2.009199846279941</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>3.8490000000000002</v>
@@ -2225,17 +2202,14 @@
       <c r="I21">
         <v>5.976</v>
       </c>
-      <c r="J21">
-        <v>2021</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
+      <c r="J21" s="1">
+        <f>(((1+E21/100)*(1+F21/100)*(1+G21/100)*(1+H21/100)*(1+I21/100))^(1/5)-1)*100</f>
         <v>6.0473599603026784</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>-2.3479999999999999</v>
@@ -2261,17 +2235,14 @@
       <c r="I22">
         <v>5.7910000000000004</v>
       </c>
-      <c r="J22">
-        <v>2021</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="0"/>
+      <c r="J22" s="1">
+        <f>(((1+E22/100)*(1+F22/100)*(1+G22/100)*(1+H22/100)*(1+I22/100))^(1/5)-1)*100</f>
         <v>5.395469554591581</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>-8.7379999999999995</v>
@@ -2297,17 +2268,14 @@
       <c r="I23">
         <v>2.5</v>
       </c>
-      <c r="J23">
-        <v>2021</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="0"/>
+      <c r="J23" s="1">
+        <f>(((1+E23/100)*(1+F23/100)*(1+G23/100)*(1+H23/100)*(1+I23/100))^(1/5)-1)*100</f>
         <v>2.8196811037813241</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>-3.1190000000000002</v>
@@ -2333,17 +2301,14 @@
       <c r="I24">
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>2021</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="0"/>
+      <c r="J24" s="1">
+        <f>(((1+E24/100)*(1+F24/100)*(1+G24/100)*(1+H24/100)*(1+I24/100))^(1/5)-1)*100</f>
         <v>2.799218745533083</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>-8.7260000000000009</v>
@@ -2369,17 +2334,14 @@
       <c r="I25">
         <v>3.9820000000000002</v>
       </c>
-      <c r="J25">
-        <v>2021</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="0"/>
+      <c r="J25" s="1">
+        <f>(((1+E25/100)*(1+F25/100)*(1+G25/100)*(1+H25/100)*(1+I25/100))^(1/5)-1)*100</f>
         <v>3.9743985985870811</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>-3.879</v>
@@ -2405,17 +2367,14 @@
       <c r="I26">
         <v>1.9890000000000001</v>
       </c>
-      <c r="J26">
-        <v>2021</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="0"/>
+      <c r="J26" s="1">
+        <f>(((1+E26/100)*(1+F26/100)*(1+G26/100)*(1+H26/100)*(1+I26/100))^(1/5)-1)*100</f>
         <v>1.7781110994721905</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1.1339999999999999</v>
@@ -2441,17 +2400,14 @@
       <c r="I27">
         <v>3.4449999999999998</v>
       </c>
-      <c r="J27">
-        <v>2021</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="0"/>
+      <c r="J27" s="1">
+        <f>(((1+E27/100)*(1+F27/100)*(1+G27/100)*(1+H27/100)*(1+I27/100))^(1/5)-1)*100</f>
         <v>3.1494585313900592</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>-4.3869999999999996</v>
@@ -2477,17 +2433,14 @@
       <c r="I28">
         <v>2.84</v>
       </c>
-      <c r="J28">
-        <v>2021</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="0"/>
+      <c r="J28" s="1">
+        <f>(((1+E28/100)*(1+F28/100)*(1+G28/100)*(1+H28/100)*(1+I28/100))^(1/5)-1)*100</f>
         <v>3.1006994595336623</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1.93</v>
@@ -2513,17 +2466,14 @@
       <c r="I29">
         <v>5.258</v>
       </c>
-      <c r="J29">
-        <v>2020</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="0"/>
+      <c r="J29" s="1">
+        <f>(((1+E29/100)*(1+F29/100)*(1+G29/100)*(1+H29/100)*(1+I29/100))^(1/5)-1)*100</f>
         <v>5.1550781495696141</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0.33500000000000002</v>
@@ -2549,17 +2499,14 @@
       <c r="I30">
         <v>4.5650000000000004</v>
       </c>
-      <c r="J30">
-        <v>2019</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="0"/>
+      <c r="J30" s="1">
+        <f>(((1+E30/100)*(1+F30/100)*(1+G30/100)*(1+H30/100)*(1+I30/100))^(1/5)-1)*100</f>
         <v>4.6797648357325361</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>-14.782999999999999</v>
@@ -2585,17 +2532,14 @@
       <c r="I31">
         <v>4.5</v>
       </c>
-      <c r="J31">
-        <v>2020</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="0"/>
+      <c r="J31" s="1">
+        <f>(((1+E31/100)*(1+F31/100)*(1+G31/100)*(1+H31/100)*(1+I31/100))^(1/5)-1)*100</f>
         <v>5.0890373121091681</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>-3.13</v>
@@ -2621,17 +2565,14 @@
       <c r="I32">
         <v>6.5940000000000003</v>
       </c>
-      <c r="J32">
-        <v>2020</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="0"/>
+      <c r="J32" s="1">
+        <f>(((1+E32/100)*(1+F32/100)*(1+G32/100)*(1+H32/100)*(1+I32/100))^(1/5)-1)*100</f>
         <v>6.4691143744759483</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0.53900000000000003</v>
@@ -2657,17 +2598,14 @@
       <c r="I33">
         <v>4.8979999999999997</v>
       </c>
-      <c r="J33">
-        <v>2021</v>
-      </c>
-      <c r="K33" s="1">
-        <f t="shared" si="0"/>
+      <c r="J33" s="1">
+        <f>(((1+E33/100)*(1+F33/100)*(1+G33/100)*(1+H33/100)*(1+I33/100))^(1/5)-1)*100</f>
         <v>4.8170829633246592</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>-5.2329999999999997</v>
@@ -2693,17 +2631,14 @@
       <c r="I34">
         <v>1.7010000000000001</v>
       </c>
-      <c r="J34">
-        <v>2021</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="0"/>
+      <c r="J34" s="1">
+        <f>(((1+E34/100)*(1+F34/100)*(1+G34/100)*(1+H34/100)*(1+I34/100))^(1/5)-1)*100</f>
         <v>1.7937561972953819</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0.95899999999999996</v>
@@ -2729,17 +2664,14 @@
       <c r="I35">
         <v>3.6859999999999999</v>
       </c>
-      <c r="J35">
-        <v>2020</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="0"/>
+      <c r="J35" s="1">
+        <f>(((1+E35/100)*(1+F35/100)*(1+G35/100)*(1+H35/100)*(1+I35/100))^(1/5)-1)*100</f>
         <v>3.6071294261492914</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>-2.157</v>
@@ -2765,17 +2697,14 @@
       <c r="I36">
         <v>3.508</v>
       </c>
-      <c r="J36">
-        <v>2017</v>
-      </c>
-      <c r="K36" s="1">
-        <f t="shared" si="0"/>
+      <c r="J36" s="1">
+        <f>(((1+E36/100)*(1+F36/100)*(1+G36/100)*(1+H36/100)*(1+I36/100))^(1/5)-1)*100</f>
         <v>3.4849856907312127</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>-6.0679999999999996</v>
@@ -2801,17 +2730,14 @@
       <c r="I37">
         <v>2.532</v>
       </c>
-      <c r="J37">
-        <v>2021</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="0"/>
+      <c r="J37" s="1">
+        <f>(((1+E37/100)*(1+F37/100)*(1+G37/100)*(1+H37/100)*(1+I37/100))^(1/5)-1)*100</f>
         <v>1.6455576620901358</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>2.2440000000000002</v>
@@ -2837,17 +2763,14 @@
       <c r="I38">
         <v>4.6280000000000001</v>
       </c>
-      <c r="J38">
-        <v>2021</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="0"/>
+      <c r="J38" s="1">
+        <f>(((1+E38/100)*(1+F38/100)*(1+G38/100)*(1+H38/100)*(1+I38/100))^(1/5)-1)*100</f>
         <v>4.5603715678763868</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>-7.048</v>
@@ -2873,17 +2796,14 @@
       <c r="I39">
         <v>3.3450000000000002</v>
       </c>
-      <c r="J39">
-        <v>2021</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="0"/>
+      <c r="J39" s="1">
+        <f>(((1+E39/100)*(1+F39/100)*(1+G39/100)*(1+H39/100)*(1+I39/100))^(1/5)-1)*100</f>
         <v>2.9758145234572542</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>-0.34200000000000003</v>
@@ -2909,17 +2829,14 @@
       <c r="I40">
         <v>4.3529999999999998</v>
       </c>
-      <c r="J40">
-        <v>2019</v>
-      </c>
-      <c r="K40" s="1">
-        <f t="shared" si="0"/>
+      <c r="J40" s="1">
+        <f>(((1+E40/100)*(1+F40/100)*(1+G40/100)*(1+H40/100)*(1+I40/100))^(1/5)-1)*100</f>
         <v>4.0566362118912513</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>1.7350000000000001</v>
@@ -2945,17 +2862,14 @@
       <c r="I41">
         <v>6.2560000000000002</v>
       </c>
-      <c r="J41">
-        <v>2020</v>
-      </c>
-      <c r="K41" s="1">
-        <f t="shared" si="0"/>
+      <c r="J41" s="1">
+        <f>(((1+E41/100)*(1+F41/100)*(1+G41/100)*(1+H41/100)*(1+I41/100))^(1/5)-1)*100</f>
         <v>6.7766052245409991</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>-8.1359999999999992</v>
@@ -2981,17 +2895,14 @@
       <c r="I42">
         <v>3.343</v>
       </c>
-      <c r="J42">
-        <v>2019</v>
-      </c>
-      <c r="K42" s="1">
-        <f t="shared" si="0"/>
+      <c r="J42" s="1">
+        <f>(((1+E42/100)*(1+F42/100)*(1+G42/100)*(1+H42/100)*(1+I42/100))^(1/5)-1)*100</f>
         <v>3.3915207486342913</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>-4.0510000000000002</v>
@@ -3017,17 +2928,14 @@
       <c r="I43">
         <v>3.2429999999999999</v>
       </c>
-      <c r="J43">
-        <v>2021</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="0"/>
+      <c r="J43" s="1">
+        <f>(((1+E43/100)*(1+F43/100)*(1+G43/100)*(1+H43/100)*(1+I43/100))^(1/5)-1)*100</f>
         <v>3.1478756326285051</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>1.9510000000000001</v>
@@ -3053,17 +2961,14 @@
       <c r="I44">
         <v>6</v>
       </c>
-      <c r="J44">
-        <v>2019</v>
-      </c>
-      <c r="K44" s="1">
-        <f t="shared" si="0"/>
+      <c r="J44" s="1">
+        <f>(((1+E44/100)*(1+F44/100)*(1+G44/100)*(1+H44/100)*(1+I44/100))^(1/5)-1)*100</f>
         <v>6.3097628908674208</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>-8.1020000000000003</v>
@@ -3089,17 +2994,14 @@
       <c r="I45">
         <v>2.5</v>
       </c>
-      <c r="J45">
-        <v>2021</v>
-      </c>
-      <c r="K45" s="1">
-        <f t="shared" si="0"/>
+      <c r="J45" s="1">
+        <f>(((1+E45/100)*(1+F45/100)*(1+G45/100)*(1+H45/100)*(1+I45/100))^(1/5)-1)*100</f>
         <v>2.9194488076590641</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>-4.984</v>
@@ -3125,17 +3027,14 @@
       <c r="I46">
         <v>2.9430000000000001</v>
       </c>
-      <c r="J46">
-        <v>2021</v>
-      </c>
-      <c r="K46" s="1">
-        <f t="shared" si="0"/>
+      <c r="J46" s="1">
+        <f>(((1+E46/100)*(1+F46/100)*(1+G46/100)*(1+H46/100)*(1+I46/100))^(1/5)-1)*100</f>
         <v>2.713879318062018</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>-5.5030000000000001</v>
@@ -3161,17 +3060,14 @@
       <c r="I47">
         <v>2.5009999999999999</v>
       </c>
-      <c r="J47">
-        <v>2021</v>
-      </c>
-      <c r="K47" s="1">
-        <f t="shared" si="0"/>
+      <c r="J47" s="1">
+        <f>(((1+E47/100)*(1+F47/100)*(1+G47/100)*(1+H47/100)*(1+I47/100))^(1/5)-1)*100</f>
         <v>2.8036619211585068</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>-1.994</v>
@@ -3197,17 +3093,14 @@
       <c r="I48">
         <v>1.8</v>
       </c>
-      <c r="J48">
-        <v>2021</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="0"/>
+      <c r="J48" s="1">
+        <f>(((1+E48/100)*(1+F48/100)*(1+G48/100)*(1+H48/100)*(1+I48/100))^(1/5)-1)*100</f>
         <v>1.5788050885373606</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>1.202</v>
@@ -3233,17 +3126,14 @@
       <c r="I49">
         <v>6.0039999999999996</v>
       </c>
-      <c r="J49">
-        <v>2020</v>
-      </c>
-      <c r="K49" s="1">
-        <f t="shared" si="0"/>
+      <c r="J49" s="1">
+        <f>(((1+E49/100)*(1+F49/100)*(1+G49/100)*(1+H49/100)*(1+I49/100))^(1/5)-1)*100</f>
         <v>5.7948578290704544</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>-16.605</v>
@@ -3269,17 +3159,14 @@
       <c r="I50">
         <v>2.524</v>
       </c>
-      <c r="J50">
-        <v>2020</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="0"/>
+      <c r="J50" s="1">
+        <f>(((1+E50/100)*(1+F50/100)*(1+G50/100)*(1+H50/100)*(1+I50/100))^(1/5)-1)*100</f>
         <v>3.7170404030193893</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>-6.72</v>
@@ -3305,17 +3192,14 @@
       <c r="I51">
         <v>5</v>
       </c>
-      <c r="J51">
-        <v>2021</v>
-      </c>
-      <c r="K51" s="1">
-        <f t="shared" si="0"/>
+      <c r="J51" s="1">
+        <f>(((1+E51/100)*(1+F51/100)*(1+G51/100)*(1+H51/100)*(1+I51/100))^(1/5)-1)*100</f>
         <v>4.8982028071090866</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>-7.7880000000000003</v>
@@ -3341,17 +3225,14 @@
       <c r="I52">
         <v>2.7970000000000002</v>
       </c>
-      <c r="J52">
-        <v>2021</v>
-      </c>
-      <c r="K52" s="1">
-        <f t="shared" si="0"/>
+      <c r="J52" s="1">
+        <f>(((1+E52/100)*(1+F52/100)*(1+G52/100)*(1+H52/100)*(1+I52/100))^(1/5)-1)*100</f>
         <v>2.7697889209442161</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>3.4849999999999999</v>
@@ -3377,17 +3258,14 @@
       <c r="I53">
         <v>5.851</v>
       </c>
-      <c r="J53">
-        <v>2021</v>
-      </c>
-      <c r="K53" s="1">
-        <f t="shared" si="0"/>
+      <c r="J53" s="1">
+        <f>(((1+E53/100)*(1+F53/100)*(1+G53/100)*(1+H53/100)*(1+I53/100))^(1/5)-1)*100</f>
         <v>5.355012239332857</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>-8.1750000000000007</v>
@@ -3413,17 +3291,14 @@
       <c r="I54">
         <v>1.9650000000000001</v>
       </c>
-      <c r="J54">
-        <v>2021</v>
-      </c>
-      <c r="K54" s="1">
-        <f t="shared" si="0"/>
+      <c r="J54" s="1">
+        <f>(((1+E54/100)*(1+F54/100)*(1+G54/100)*(1+H54/100)*(1+I54/100))^(1/5)-1)*100</f>
         <v>1.8046801400966261</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>-4.2409999999999997</v>
@@ -3449,17 +3324,14 @@
       <c r="I55">
         <v>-1.085</v>
       </c>
-      <c r="J55">
-        <v>2021</v>
-      </c>
-      <c r="K55" s="1">
-        <f t="shared" si="0"/>
+      <c r="J55" s="1">
+        <f>(((1+E55/100)*(1+F55/100)*(1+G55/100)*(1+H55/100)*(1+I55/100))^(1/5)-1)*100</f>
         <v>-4.8396868564120288</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>-0.53100000000000003</v>
@@ -3485,17 +3357,14 @@
       <c r="I56">
         <v>2.9359999999999999</v>
       </c>
-      <c r="J56">
-        <v>2019</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" si="0"/>
+      <c r="J56" s="1">
+        <f>(((1+E56/100)*(1+F56/100)*(1+G56/100)*(1+H56/100)*(1+I56/100))^(1/5)-1)*100</f>
         <v>2.8875953765831852</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>-0.55100000000000005</v>
@@ -3521,17 +3390,14 @@
       <c r="I57">
         <v>3.3</v>
       </c>
-      <c r="J57">
-        <v>2021</v>
-      </c>
-      <c r="K57" s="1">
-        <f t="shared" si="0"/>
+      <c r="J57" s="1">
+        <f>(((1+E57/100)*(1+F57/100)*(1+G57/100)*(1+H57/100)*(1+I57/100))^(1/5)-1)*100</f>
         <v>3.1575706489613609</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>-1.56</v>
@@ -3557,17 +3423,14 @@
       <c r="I58">
         <v>2.3450000000000002</v>
       </c>
-      <c r="J58">
-        <v>2020</v>
-      </c>
-      <c r="K58" s="1">
-        <f t="shared" si="0"/>
+      <c r="J58" s="1">
+        <f>(((1+E58/100)*(1+F58/100)*(1+G58/100)*(1+H58/100)*(1+I58/100))^(1/5)-1)*100</f>
         <v>2.1697864038474401</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>6.0570000000000004</v>
@@ -3593,17 +3456,14 @@
       <c r="I59">
         <v>6.9909999999999997</v>
       </c>
-      <c r="J59">
-        <v>2021</v>
-      </c>
-      <c r="K59" s="1">
-        <f t="shared" si="0"/>
+      <c r="J59" s="1">
+        <f>(((1+E59/100)*(1+F59/100)*(1+G59/100)*(1+H59/100)*(1+I59/100))^(1/5)-1)*100</f>
         <v>6.44782266381414</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>-17.001000000000001</v>
@@ -3629,17 +3489,14 @@
       <c r="I60">
         <v>3.548</v>
       </c>
-      <c r="J60">
-        <v>2021</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="0"/>
+      <c r="J60" s="1">
+        <f>(((1+E60/100)*(1+F60/100)*(1+G60/100)*(1+H60/100)*(1+I60/100))^(1/5)-1)*100</f>
         <v>5.1447173385441802</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>-2.2269999999999999</v>
@@ -3665,17 +3522,14 @@
       <c r="I61">
         <v>1.3720000000000001</v>
       </c>
-      <c r="J61">
-        <v>2021</v>
-      </c>
-      <c r="K61" s="1">
-        <f t="shared" si="0"/>
+      <c r="J61" s="1">
+        <f>(((1+E61/100)*(1+F61/100)*(1+G61/100)*(1+H61/100)*(1+I61/100))^(1/5)-1)*100</f>
         <v>1.1230224397165589</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>-7.9020000000000001</v>
@@ -3701,17 +3555,14 @@
       <c r="I62">
         <v>1.44</v>
       </c>
-      <c r="J62">
-        <v>2021</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="0"/>
+      <c r="J62" s="1">
+        <f>(((1+E62/100)*(1+F62/100)*(1+G62/100)*(1+H62/100)*(1+I62/100))^(1/5)-1)*100</f>
         <v>1.4239992638658716</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>-1.8640000000000001</v>
@@ -3737,17 +3588,14 @@
       <c r="I63">
         <v>3.8090000000000002</v>
       </c>
-      <c r="J63">
-        <v>2021</v>
-      </c>
-      <c r="K63" s="1">
-        <f t="shared" si="0"/>
+      <c r="J63" s="1">
+        <f>(((1+E63/100)*(1+F63/100)*(1+G63/100)*(1+H63/100)*(1+I63/100))^(1/5)-1)*100</f>
         <v>3.7607954158812573</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>0.59099999999999997</v>
@@ -3773,17 +3621,14 @@
       <c r="I64">
         <v>5.01</v>
       </c>
-      <c r="J64">
-        <v>2020</v>
-      </c>
-      <c r="K64" s="1">
-        <f t="shared" si="0"/>
+      <c r="J64" s="1">
+        <f>(((1+E64/100)*(1+F64/100)*(1+G64/100)*(1+H64/100)*(1+I64/100))^(1/5)-1)*100</f>
         <v>5.6560539642912966</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>-6.76</v>
@@ -3809,17 +3654,14 @@
       <c r="I65">
         <v>5.2</v>
       </c>
-      <c r="J65">
-        <v>2021</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="0"/>
+      <c r="J65" s="1">
+        <f>(((1+E65/100)*(1+F65/100)*(1+G65/100)*(1+H65/100)*(1+I65/100))^(1/5)-1)*100</f>
         <v>4.958089999356563</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>-3.6920000000000002</v>
@@ -3845,17 +3687,14 @@
       <c r="I66">
         <v>1.3440000000000001</v>
       </c>
-      <c r="J66">
-        <v>2021</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" si="0"/>
+      <c r="J66" s="1">
+        <f>(((1+E66/100)*(1+F66/100)*(1+G66/100)*(1+H66/100)*(1+I66/100))^(1/5)-1)*100</f>
         <v>1.3026326586460302</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>0.51400000000000001</v>
@@ -3881,17 +3720,14 @@
       <c r="I67">
         <v>6.774</v>
       </c>
-      <c r="J67">
-        <v>2021</v>
-      </c>
-      <c r="K67" s="1">
-        <f t="shared" si="0"/>
+      <c r="J67" s="1">
+        <f>(((1+E67/100)*(1+F67/100)*(1+G67/100)*(1+H67/100)*(1+I67/100))^(1/5)-1)*100</f>
         <v>4.8174167099427123</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>-9.0190000000000001</v>
@@ -3917,17 +3753,14 @@
       <c r="I68">
         <v>1.355</v>
       </c>
-      <c r="J68">
-        <v>2021</v>
-      </c>
-      <c r="K68" s="1">
-        <f t="shared" ref="K68:K131" si="1">(((1+E68/100)*(1+F68/100)*(1+G68/100)*(1+H68/100)*(1+I68/100))^(1/5)-1)*100</f>
+      <c r="J68" s="1">
+        <f t="shared" ref="J68:J131" si="0">(((1+E68/100)*(1+F68/100)*(1+G68/100)*(1+H68/100)*(1+I68/100))^(1/5)-1)*100</f>
         <v>1.7512423313889913</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>-13.757</v>
@@ -3953,17 +3786,14 @@
       <c r="I69">
         <v>2.8490000000000002</v>
       </c>
-      <c r="J69">
-        <v>2021</v>
-      </c>
-      <c r="K69" s="1">
-        <f t="shared" si="1"/>
+      <c r="J69" s="1">
+        <f t="shared" si="0"/>
         <v>3.4115140433327085</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>-1.764</v>
@@ -3989,17 +3819,14 @@
       <c r="I70">
         <v>3.5</v>
       </c>
-      <c r="J70">
-        <v>2021</v>
-      </c>
-      <c r="K70" s="1">
-        <f t="shared" si="1"/>
+      <c r="J70" s="1">
+        <f t="shared" si="0"/>
         <v>3.5437902237059005</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>4.92</v>
@@ -4025,17 +3852,14 @@
       <c r="I71">
         <v>5.1870000000000003</v>
       </c>
-      <c r="J71">
-        <v>2020</v>
-      </c>
-      <c r="K71" s="1">
-        <f t="shared" si="1"/>
+      <c r="J71" s="1">
+        <f t="shared" si="0"/>
         <v>5.1982510539632099</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>1.5</v>
@@ -4061,17 +3885,14 @@
       <c r="I72">
         <v>5</v>
       </c>
-      <c r="J72">
-        <v>2018</v>
-      </c>
-      <c r="K72" s="1">
-        <f t="shared" si="1"/>
+      <c r="J72" s="1">
+        <f t="shared" si="0"/>
         <v>4.8998089777712028</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>43.48</v>
@@ -4097,17 +3918,14 @@
       <c r="I73">
         <v>3.32</v>
       </c>
-      <c r="J73">
-        <v>2021</v>
-      </c>
-      <c r="K73" s="1">
-        <f t="shared" si="1"/>
+      <c r="J73" s="1">
+        <f t="shared" si="0"/>
         <v>20.347432167461509</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>-3.343</v>
@@ -4133,17 +3951,14 @@
       <c r="I74">
         <v>1.5</v>
       </c>
-      <c r="J74">
-        <v>2021</v>
-      </c>
-      <c r="K74" s="1">
-        <f t="shared" si="1"/>
+      <c r="J74" s="1">
+        <f t="shared" si="0"/>
         <v>1.299207131108937</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>-8.9649999999999999</v>
@@ -4169,17 +3984,14 @@
       <c r="I75">
         <v>3.94</v>
       </c>
-      <c r="J75">
-        <v>2021</v>
-      </c>
-      <c r="K75" s="1">
-        <f t="shared" si="1"/>
+      <c r="J75" s="1">
+        <f t="shared" si="0"/>
         <v>3.7598766338030609</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>-6.5449999999999999</v>
@@ -4205,17 +4017,14 @@
       <c r="I76">
         <v>2.8010000000000002</v>
       </c>
-      <c r="J76">
-        <v>2021</v>
-      </c>
-      <c r="K76" s="1">
-        <f t="shared" si="1"/>
+      <c r="J76" s="1">
+        <f t="shared" si="0"/>
         <v>3.0911074024187579</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>-4.4630000000000001</v>
@@ -4241,17 +4050,14 @@
       <c r="I77">
         <v>3.15</v>
       </c>
-      <c r="J77">
-        <v>2021</v>
-      </c>
-      <c r="K77" s="1">
-        <f t="shared" si="1"/>
+      <c r="J77" s="1">
+        <f t="shared" si="0"/>
         <v>2.7508281765034726</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>-6.8419999999999996</v>
@@ -4277,17 +4083,14 @@
       <c r="I78">
         <v>2.1970000000000001</v>
       </c>
-      <c r="J78">
-        <v>2020</v>
-      </c>
-      <c r="K78" s="1">
-        <f t="shared" si="1"/>
+      <c r="J78" s="1">
+        <f t="shared" si="0"/>
         <v>2.4582591670348597</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>-6.5960000000000001</v>
@@ -4313,17 +4116,14 @@
       <c r="I79">
         <v>6.173</v>
       </c>
-      <c r="J79">
-        <v>2022</v>
-      </c>
-      <c r="K79" s="1">
-        <f t="shared" si="1"/>
+      <c r="J79" s="1">
+        <f t="shared" si="0"/>
         <v>6.4689590064784142</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>-2.0649999999999999</v>
@@ -4349,17 +4149,14 @@
       <c r="I80">
         <v>5.117</v>
       </c>
-      <c r="J80">
-        <v>2021</v>
-      </c>
-      <c r="K80" s="1">
-        <f t="shared" si="1"/>
+      <c r="J80" s="1">
+        <f t="shared" si="0"/>
         <v>5.2026926673858664</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>3.33</v>
@@ -4385,17 +4182,14 @@
       <c r="I81">
         <v>2.0470000000000002</v>
       </c>
-      <c r="J81">
-        <v>2022</v>
-      </c>
-      <c r="K81" s="1">
-        <f t="shared" si="1"/>
+      <c r="J81" s="1">
+        <f t="shared" si="0"/>
         <v>2.0467999972561657</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>-15.701000000000001</v>
@@ -4421,17 +4215,14 @@
       <c r="I82">
         <v>2.6539999999999999</v>
       </c>
-      <c r="J82">
-        <v>2021</v>
-      </c>
-      <c r="K82" s="1">
-        <f t="shared" si="1"/>
+      <c r="J82" s="1">
+        <f t="shared" si="0"/>
         <v>2.6914955530726203</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>6.1840000000000002</v>
@@ -4457,17 +4248,14 @@
       <c r="I83">
         <v>3.01</v>
       </c>
-      <c r="J83">
-        <v>2021</v>
-      </c>
-      <c r="K83" s="1">
-        <f t="shared" si="1"/>
+      <c r="J83" s="1">
+        <f t="shared" si="0"/>
         <v>3.4112691933074979</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>-1.857</v>
@@ -4493,17 +4281,14 @@
       <c r="I84">
         <v>3.4990000000000001</v>
       </c>
-      <c r="J84">
-        <v>2021</v>
-      </c>
-      <c r="K84" s="1">
-        <f t="shared" si="1"/>
+      <c r="J84" s="1">
+        <f t="shared" si="0"/>
         <v>3.1638195123315782</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>-9.0259999999999998</v>
@@ -4529,17 +4314,14 @@
       <c r="I85">
         <v>0.74199999999999999</v>
       </c>
-      <c r="J85">
-        <v>2021</v>
-      </c>
-      <c r="K85" s="1">
-        <f t="shared" si="1"/>
+      <c r="J85" s="1">
+        <f t="shared" si="0"/>
         <v>0.80879929151302932</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>-10.048999999999999</v>
@@ -4565,17 +4347,14 @@
       <c r="I86">
         <v>1.6</v>
       </c>
-      <c r="J86">
-        <v>2020</v>
-      </c>
-      <c r="K86" s="1">
-        <f t="shared" si="1"/>
+      <c r="J86" s="1">
+        <f t="shared" si="0"/>
         <v>2.0824541545120256</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>-4.6189999999999998</v>
@@ -4601,17 +4380,14 @@
       <c r="I87">
         <v>0.41399999999999998</v>
       </c>
-      <c r="J87">
-        <v>2021</v>
-      </c>
-      <c r="K87" s="1">
-        <f t="shared" si="1"/>
+      <c r="J87" s="1">
+        <f t="shared" si="0"/>
         <v>0.95290057142918272</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>-1.5509999999999999</v>
@@ -4637,17 +4413,14 @@
       <c r="I88">
         <v>3.3</v>
       </c>
-      <c r="J88">
-        <v>2020</v>
-      </c>
-      <c r="K88" s="1">
-        <f t="shared" si="1"/>
+      <c r="J88" s="1">
+        <f t="shared" si="0"/>
         <v>3.1197203469055745</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>-2.6</v>
@@ -4673,17 +4446,14 @@
       <c r="I89">
         <v>2.722</v>
       </c>
-      <c r="J89">
-        <v>2021</v>
-      </c>
-      <c r="K89" s="1">
-        <f t="shared" si="1"/>
+      <c r="J89" s="1">
+        <f t="shared" si="0"/>
         <v>3.5478565697210085</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>-0.25</v>
@@ -4709,17 +4479,14 @@
       <c r="I90">
         <v>5.516</v>
       </c>
-      <c r="J90">
-        <v>2021</v>
-      </c>
-      <c r="K90" s="1">
-        <f t="shared" si="1"/>
+      <c r="J90" s="1">
+        <f t="shared" si="0"/>
         <v>5.4252327789016563</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>-0.54700000000000004</v>
@@ -4745,17 +4512,14 @@
       <c r="I91">
         <v>2.0270000000000001</v>
       </c>
-      <c r="J91">
-        <v>2020</v>
-      </c>
-      <c r="K91" s="1">
-        <f t="shared" si="1"/>
+      <c r="J91" s="1">
+        <f t="shared" si="0"/>
         <v>2.32167462695263</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>-0.70899999999999996</v>
@@ -4781,17 +4545,14 @@
       <c r="I92">
         <v>2.34</v>
       </c>
-      <c r="J92">
-        <v>2021</v>
-      </c>
-      <c r="K92" s="1">
-        <f t="shared" si="1"/>
+      <c r="J92" s="1">
+        <f t="shared" si="0"/>
         <v>2.4383336994346028</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>-5.3410000000000002</v>
@@ -4817,17 +4578,14 @@
       <c r="I93">
         <v>3.5</v>
       </c>
-      <c r="J93">
-        <v>2021</v>
-      </c>
-      <c r="K93" s="1">
-        <f t="shared" si="1"/>
+      <c r="J93" s="1">
+        <f t="shared" si="0"/>
         <v>3.6798380193440394</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>-8.8550000000000004</v>
@@ -4853,17 +4611,14 @@
       <c r="I94">
         <v>2.6549999999999998</v>
       </c>
-      <c r="J94">
-        <v>2020</v>
-      </c>
-      <c r="K94" s="1">
-        <f t="shared" si="1"/>
+      <c r="J94" s="1">
+        <f t="shared" si="0"/>
         <v>2.6327960814251927</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>-8.6170000000000009</v>
@@ -4889,17 +4644,14 @@
       <c r="I95">
         <v>3.9590000000000001</v>
       </c>
-      <c r="J95">
-        <v>2021</v>
-      </c>
-      <c r="K95" s="1">
-        <f t="shared" si="1"/>
+      <c r="J95" s="1">
+        <f t="shared" si="0"/>
         <v>3.7295887337195577</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>-0.435</v>
@@ -4925,17 +4677,14 @@
       <c r="I96">
         <v>4.3</v>
       </c>
-      <c r="J96">
-        <v>2020</v>
-      </c>
-      <c r="K96" s="1">
-        <f t="shared" si="1"/>
+      <c r="J96" s="1">
+        <f t="shared" si="0"/>
         <v>3.8489602828523539</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>-3.7690000000000001</v>
@@ -4961,53 +4710,47 @@
       <c r="I97">
         <v>3.3769999999999998</v>
       </c>
-      <c r="J97">
-        <v>2021</v>
-      </c>
-      <c r="K97" s="1">
-        <f t="shared" si="1"/>
+      <c r="J97" s="1">
+        <f t="shared" si="0"/>
         <v>3.0175636959453911</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>-25.907</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="s">
-        <v>3</v>
-      </c>
-      <c r="J98">
-        <v>2020</v>
-      </c>
-      <c r="K98" s="1" t="e">
-        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J98" s="1" t="e">
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>-5.9950000000000001</v>
@@ -5033,17 +4776,14 @@
       <c r="I99">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="J99">
-        <v>2021</v>
-      </c>
-      <c r="K99" s="1">
-        <f t="shared" si="1"/>
+      <c r="J99" s="1">
+        <f t="shared" si="0"/>
         <v>1.3804392594034098</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>-2.9670000000000001</v>
@@ -5069,17 +4809,14 @@
       <c r="I100">
         <v>5.98</v>
       </c>
-      <c r="J100">
-        <v>2016</v>
-      </c>
-      <c r="K100" s="1">
-        <f t="shared" si="1"/>
+      <c r="J100" s="1">
+        <f t="shared" si="0"/>
         <v>5.3213545713318711</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>-29.475999999999999</v>
@@ -5105,17 +4842,14 @@
       <c r="I101">
         <v>4.0970000000000004</v>
       </c>
-      <c r="J101">
-        <v>2021</v>
-      </c>
-      <c r="K101" s="1">
-        <f t="shared" si="1"/>
+      <c r="J101" s="1">
+        <f t="shared" si="0"/>
         <v>8.1761024270640803</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>-0.13200000000000001</v>
@@ -5141,17 +4875,14 @@
       <c r="I102">
         <v>2.3210000000000002</v>
       </c>
-      <c r="J102">
-        <v>2021</v>
-      </c>
-      <c r="K102" s="1">
-        <f t="shared" si="1"/>
+      <c r="J102" s="1">
+        <f t="shared" si="0"/>
         <v>2.2485003202490361</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>-1.7769999999999999</v>
@@ -5177,17 +4908,14 @@
       <c r="I103">
         <v>2.4990000000000001</v>
       </c>
-      <c r="J103">
-        <v>2020</v>
-      </c>
-      <c r="K103" s="1">
-        <f t="shared" si="1"/>
+      <c r="J103" s="1">
+        <f t="shared" si="0"/>
         <v>2.2274853447708631</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>-54.011000000000003</v>
@@ -5213,17 +4941,14 @@
       <c r="I104">
         <v>3.3010000000000002</v>
       </c>
-      <c r="J104">
-        <v>2021</v>
-      </c>
-      <c r="K104" s="1">
-        <f t="shared" si="1"/>
+      <c r="J104" s="1">
+        <f t="shared" si="0"/>
         <v>19.980682218942249</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>-7.141</v>
@@ -5249,17 +4974,14 @@
       <c r="I105">
         <v>5</v>
       </c>
-      <c r="J105">
-        <v>2018</v>
-      </c>
-      <c r="K105" s="1">
-        <f t="shared" si="1"/>
+      <c r="J105" s="1">
+        <f t="shared" si="0"/>
         <v>5.084970188304716</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>0.91300000000000003</v>
@@ -5285,17 +5007,14 @@
       <c r="I106">
         <v>4.5289999999999999</v>
       </c>
-      <c r="J106">
-        <v>2020</v>
-      </c>
-      <c r="K106" s="1">
-        <f t="shared" si="1"/>
+      <c r="J106" s="1">
+        <f t="shared" si="0"/>
         <v>3.6928188430073838</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>-5.5339999999999998</v>
@@ -5321,17 +5040,14 @@
       <c r="I107">
         <v>3.9390000000000001</v>
       </c>
-      <c r="J107">
-        <v>2021</v>
-      </c>
-      <c r="K107" s="1">
-        <f t="shared" si="1"/>
+      <c r="J107" s="1">
+        <f t="shared" si="0"/>
         <v>4.4179402153438074</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>-33.5</v>
@@ -5357,17 +5073,14 @@
       <c r="I108">
         <v>5.5549999999999997</v>
       </c>
-      <c r="J108">
-        <v>2020</v>
-      </c>
-      <c r="K108" s="1">
-        <f t="shared" si="1"/>
+      <c r="J108" s="1">
+        <f t="shared" si="0"/>
         <v>5.8590739691689153</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>-1.244</v>
@@ -5393,17 +5106,14 @@
       <c r="I109">
         <v>5</v>
       </c>
-      <c r="J109">
-        <v>2020</v>
-      </c>
-      <c r="K109" s="1">
-        <f t="shared" si="1"/>
+      <c r="J109" s="1">
+        <f t="shared" si="0"/>
         <v>5.1119097685454307</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>-8.3249999999999993</v>
@@ -5429,17 +5139,14 @@
       <c r="I110">
         <v>3.44</v>
       </c>
-      <c r="J110">
-        <v>2021</v>
-      </c>
-      <c r="K110" s="1">
-        <f t="shared" si="1"/>
+      <c r="J110" s="1">
+        <f t="shared" si="0"/>
         <v>3.5033376749624701</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>-1.63</v>
@@ -5465,17 +5172,14 @@
       <c r="I111">
         <v>1.5</v>
       </c>
-      <c r="J111">
-        <v>2021</v>
-      </c>
-      <c r="K111" s="1">
-        <f t="shared" si="1"/>
+      <c r="J111" s="1">
+        <f t="shared" si="0"/>
         <v>2.0077521825225819</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>-0.93799999999999994</v>
@@ -5501,17 +5205,14 @@
       <c r="I112">
         <v>4.7530000000000001</v>
       </c>
-      <c r="J112">
-        <v>2021</v>
-      </c>
-      <c r="K112" s="1">
-        <f t="shared" si="1"/>
+      <c r="J112" s="1">
+        <f t="shared" si="0"/>
         <v>5.8780438478969632</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>-14.898</v>
@@ -5537,17 +5238,14 @@
       <c r="I113">
         <v>3.2610000000000001</v>
       </c>
-      <c r="J113">
-        <v>2021</v>
-      </c>
-      <c r="K113" s="1">
-        <f t="shared" si="1"/>
+      <c r="J113" s="1">
+        <f t="shared" si="0"/>
         <v>3.9039275832589926</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>-8.0570000000000004</v>
@@ -5573,17 +5271,14 @@
       <c r="I114">
         <v>2.0859999999999999</v>
       </c>
-      <c r="J114">
-        <v>2021</v>
-      </c>
-      <c r="K114" s="1">
-        <f t="shared" si="1"/>
+      <c r="J114" s="1">
+        <f t="shared" si="0"/>
         <v>1.8531090472304168</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>-1.8180000000000001</v>
@@ -5609,17 +5304,14 @@
       <c r="I115">
         <v>0.6</v>
       </c>
-      <c r="J115">
-        <v>2018</v>
-      </c>
-      <c r="K115" s="1">
-        <f t="shared" si="1"/>
+      <c r="J115" s="1">
+        <f t="shared" si="0"/>
         <v>1.6689205553142683</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>-8.3000000000000007</v>
@@ -5645,17 +5337,14 @@
       <c r="I116">
         <v>5</v>
       </c>
-      <c r="J116">
-        <v>2021</v>
-      </c>
-      <c r="K116" s="1">
-        <f t="shared" si="1"/>
+      <c r="J116" s="1">
+        <f t="shared" si="0"/>
         <v>4.6884732911316451</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>-4.5579999999999998</v>
@@ -5681,17 +5370,14 @@
       <c r="I117">
         <v>5</v>
       </c>
-      <c r="J117">
-        <v>2021</v>
-      </c>
-      <c r="K117" s="1">
-        <f t="shared" si="1"/>
+      <c r="J117" s="1">
+        <f t="shared" si="0"/>
         <v>5.6973600153161552</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>-15.307</v>
@@ -5717,17 +5403,14 @@
       <c r="I118">
         <v>3</v>
       </c>
-      <c r="J118">
-        <v>2021</v>
-      </c>
-      <c r="K118" s="1">
-        <f t="shared" si="1"/>
+      <c r="J118" s="1">
+        <f t="shared" si="0"/>
         <v>2.8998052577562605</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>-7.1870000000000003</v>
@@ -5753,17 +5436,14 @@
       <c r="I119">
         <v>3.355</v>
       </c>
-      <c r="J119">
-        <v>2021</v>
-      </c>
-      <c r="K119" s="1">
-        <f t="shared" si="1"/>
+      <c r="J119" s="1">
+        <f t="shared" si="0"/>
         <v>3.1383016306986367</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>-1.1990000000000001</v>
@@ -5789,17 +5469,14 @@
       <c r="I120">
         <v>13.237</v>
       </c>
-      <c r="J120">
-        <v>2021</v>
-      </c>
-      <c r="K120" s="1">
-        <f t="shared" si="1"/>
+      <c r="J120" s="1">
+        <f t="shared" si="0"/>
         <v>9.012874629561729</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>3.1890000000000001</v>
@@ -5825,17 +5502,14 @@
       <c r="I121">
         <v>3.6019999999999999</v>
       </c>
-      <c r="J121">
-        <v>2020</v>
-      </c>
-      <c r="K121" s="1">
-        <f t="shared" si="1"/>
+      <c r="J121" s="1">
+        <f t="shared" si="0"/>
         <v>3.3575212043992719</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>-8.0359999999999996</v>
@@ -5861,17 +5535,14 @@
       <c r="I122">
         <v>2.484</v>
       </c>
-      <c r="J122">
-        <v>2021</v>
-      </c>
-      <c r="K122" s="1">
-        <f t="shared" si="1"/>
+      <c r="J122" s="1">
+        <f t="shared" si="0"/>
         <v>2.67443200250288</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>0.70599999999999996</v>
@@ -5897,17 +5568,14 @@
       <c r="I123">
         <v>1.84</v>
       </c>
-      <c r="J123">
-        <v>2019</v>
-      </c>
-      <c r="K123" s="1">
-        <f t="shared" si="1"/>
+      <c r="J123" s="1">
+        <f t="shared" si="0"/>
         <v>2.0099720515069919</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>-2.37</v>
@@ -5933,17 +5601,14 @@
       <c r="I124">
         <v>5.2750000000000004</v>
       </c>
-      <c r="J124">
-        <v>2020</v>
-      </c>
-      <c r="K124" s="1">
-        <f t="shared" si="1"/>
+      <c r="J124" s="1">
+        <f t="shared" si="0"/>
         <v>5.1759592248237896</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>-3.9129999999999998</v>
@@ -5969,17 +5634,14 @@
       <c r="I125">
         <v>1.5389999999999999</v>
       </c>
-      <c r="J125">
-        <v>2021</v>
-      </c>
-      <c r="K125" s="1">
-        <f t="shared" si="1"/>
+      <c r="J125" s="1">
+        <f t="shared" si="0"/>
         <v>1.4410734195107855</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>-2.081</v>
@@ -6005,17 +5667,14 @@
       <c r="I126">
         <v>2.3620000000000001</v>
       </c>
-      <c r="J126">
-        <v>2021</v>
-      </c>
-      <c r="K126" s="1">
-        <f t="shared" si="1"/>
+      <c r="J126" s="1">
+        <f t="shared" si="0"/>
         <v>2.1514572315447733</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>-1.7889999999999999</v>
@@ -6041,17 +5700,14 @@
       <c r="I127">
         <v>3.8</v>
       </c>
-      <c r="J127">
-        <v>2021</v>
-      </c>
-      <c r="K127" s="1">
-        <f t="shared" si="1"/>
+      <c r="J127" s="1">
+        <f t="shared" si="0"/>
         <v>3.5595626301230476</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>3.6230000000000002</v>
@@ -6077,17 +5733,14 @@
       <c r="I128">
         <v>5.9950000000000001</v>
       </c>
-      <c r="J128">
-        <v>2020</v>
-      </c>
-      <c r="K128" s="1">
-        <f t="shared" si="1"/>
+      <c r="J128" s="1">
+        <f t="shared" si="0"/>
         <v>7.975145647281856</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>-1.794</v>
@@ -6113,17 +5766,14 @@
       <c r="I129">
         <v>2.9039999999999999</v>
       </c>
-      <c r="J129">
-        <v>2020</v>
-      </c>
-      <c r="K129" s="1">
-        <f t="shared" si="1"/>
+      <c r="J129" s="1">
+        <f t="shared" si="0"/>
         <v>2.9293933936220817</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>-6.1109999999999998</v>
@@ -6149,17 +5799,14 @@
       <c r="I130">
         <v>3.8050000000000002</v>
       </c>
-      <c r="J130">
-        <v>2021</v>
-      </c>
-      <c r="K130" s="1">
-        <f t="shared" si="1"/>
+      <c r="J130" s="1">
+        <f t="shared" si="0"/>
         <v>3.6554848536070939</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>-0.71699999999999997</v>
@@ -6185,17 +5832,14 @@
       <c r="I131">
         <v>1.29</v>
       </c>
-      <c r="J131">
-        <v>2021</v>
-      </c>
-      <c r="K131" s="1">
-        <f t="shared" si="1"/>
+      <c r="J131" s="1">
+        <f t="shared" si="0"/>
         <v>1.7928633901420188</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>-3.2</v>
@@ -6221,17 +5865,14 @@
       <c r="I132">
         <v>2.6560000000000001</v>
       </c>
-      <c r="J132">
-        <v>2021</v>
-      </c>
-      <c r="K132" s="1">
-        <f t="shared" ref="K132:K170" si="2">(((1+E132/100)*(1+F132/100)*(1+G132/100)*(1+H132/100)*(1+I132/100))^(1/5)-1)*100</f>
+      <c r="J132" s="1">
+        <f t="shared" ref="J132:J170" si="1">(((1+E132/100)*(1+F132/100)*(1+G132/100)*(1+H132/100)*(1+I132/100))^(1/5)-1)*100</f>
         <v>2.6913528441363521</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>-0.94299999999999995</v>
@@ -6257,17 +5898,14 @@
       <c r="I133">
         <v>5</v>
       </c>
-      <c r="J133">
-        <v>2021</v>
-      </c>
-      <c r="K133" s="1">
-        <f t="shared" si="2"/>
+      <c r="J133" s="1">
+        <f t="shared" si="1"/>
         <v>4.4584723657715486</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>-8.92</v>
@@ -6293,17 +5931,14 @@
       <c r="I134">
         <v>3.2</v>
       </c>
-      <c r="J134">
-        <v>2021</v>
-      </c>
-      <c r="K134" s="1">
-        <f t="shared" si="2"/>
+      <c r="J134" s="1">
+        <f t="shared" si="1"/>
         <v>6.501137691589709</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>-17.945</v>
@@ -6329,17 +5964,14 @@
       <c r="I135">
         <v>4.5</v>
       </c>
-      <c r="J135">
-        <v>2021</v>
-      </c>
-      <c r="K135" s="1">
-        <f t="shared" si="2"/>
+      <c r="J135" s="1">
+        <f t="shared" si="1"/>
         <v>4.4008202893085491</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>-3.4969999999999999</v>
@@ -6365,17 +5997,14 @@
       <c r="I136">
         <v>3.024</v>
       </c>
-      <c r="J136">
-        <v>2019</v>
-      </c>
-      <c r="K136" s="1">
-        <f t="shared" si="2"/>
+      <c r="J136" s="1">
+        <f t="shared" si="1"/>
         <v>3.3979293994828685</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>-0.82</v>
@@ -6401,17 +6030,14 @@
       <c r="I137">
         <v>3.5</v>
       </c>
-      <c r="J137">
-        <v>2020</v>
-      </c>
-      <c r="K137" s="1">
-        <f t="shared" si="2"/>
+      <c r="J137" s="1">
+        <f t="shared" si="1"/>
         <v>3.6595075958649748</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>-11.013999999999999</v>
@@ -6437,17 +6063,14 @@
       <c r="I138">
         <v>3.0030000000000001</v>
       </c>
-      <c r="J138">
-        <v>2021</v>
-      </c>
-      <c r="K138" s="1">
-        <f t="shared" si="2"/>
+      <c r="J138" s="1">
+        <f t="shared" si="1"/>
         <v>2.9793936704469726</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>-9.5180000000000007</v>
@@ -6473,17 +6096,14 @@
       <c r="I139">
         <v>5.9779999999999998</v>
       </c>
-      <c r="J139">
-        <v>2021</v>
-      </c>
-      <c r="K139" s="1">
-        <f t="shared" si="2"/>
+      <c r="J139" s="1">
+        <f t="shared" si="1"/>
         <v>5.7918889062514411</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>-2.2000000000000002</v>
@@ -6509,17 +6129,14 @@
       <c r="I140">
         <v>3.11</v>
       </c>
-      <c r="J140">
-        <v>2021</v>
-      </c>
-      <c r="K140" s="1">
-        <f t="shared" si="2"/>
+      <c r="J140" s="1">
+        <f t="shared" si="1"/>
         <v>2.6806256436602949</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>-8.4420000000000002</v>
@@ -6545,17 +6162,14 @@
       <c r="I141">
         <v>1.9</v>
       </c>
-      <c r="J141">
-        <v>2021</v>
-      </c>
-      <c r="K141" s="1">
-        <f t="shared" si="2"/>
+      <c r="J141" s="1">
+        <f t="shared" si="1"/>
         <v>1.7981990890303834</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>-3.9039999999999999</v>
@@ -6581,17 +6195,14 @@
       <c r="I142">
         <v>0</v>
       </c>
-      <c r="J142">
-        <v>2020</v>
-      </c>
-      <c r="K142" s="1">
-        <f t="shared" si="2"/>
+      <c r="J142" s="1">
+        <f t="shared" si="1"/>
         <v>-0.54252774039496021</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>-3.5579999999999998</v>
@@ -6617,17 +6228,14 @@
       <c r="I143">
         <v>3.8039999999999998</v>
       </c>
-      <c r="J143">
-        <v>2020</v>
-      </c>
-      <c r="K143" s="1">
-        <f t="shared" si="2"/>
+      <c r="J143" s="1">
+        <f t="shared" si="1"/>
         <v>2.6894173430166424</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>-3.7480000000000002</v>
@@ -6653,17 +6261,14 @@
       <c r="I144">
         <v>3.48</v>
       </c>
-      <c r="J144">
-        <v>2021</v>
-      </c>
-      <c r="K144" s="1">
-        <f t="shared" si="2"/>
+      <c r="J144" s="1">
+        <f t="shared" si="1"/>
         <v>3.4719565162630639</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>-2.6640000000000001</v>
@@ -6689,17 +6294,14 @@
       <c r="I145">
         <v>0.7</v>
       </c>
-      <c r="J145">
-        <v>2021</v>
-      </c>
-      <c r="K145" s="1">
-        <f t="shared" si="2"/>
+      <c r="J145" s="1">
+        <f t="shared" si="1"/>
         <v>0.33493540198030747</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>-3.3570000000000002</v>
@@ -6725,17 +6327,14 @@
       <c r="I146">
         <v>6.0979999999999999</v>
       </c>
-      <c r="J146">
-        <v>2021</v>
-      </c>
-      <c r="K146" s="1">
-        <f t="shared" si="2"/>
+      <c r="J146" s="1">
+        <f t="shared" si="1"/>
         <v>6.663632192896185</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>-3.1080000000000001</v>
@@ -6761,17 +6360,14 @@
       <c r="I147">
         <v>2.6</v>
       </c>
-      <c r="J147">
-        <v>2021</v>
-      </c>
-      <c r="K147" s="1">
-        <f t="shared" si="2"/>
+      <c r="J147" s="1">
+        <f t="shared" si="1"/>
         <v>3.4845751280919712</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>-6.6840000000000002</v>
@@ -6797,17 +6393,14 @@
       <c r="I148">
         <v>1.3</v>
       </c>
-      <c r="J148">
-        <v>2020</v>
-      </c>
-      <c r="K148" s="1">
-        <f t="shared" si="2"/>
+      <c r="J148" s="1">
+        <f t="shared" si="1"/>
         <v>1.146772585322231</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>3.0249999999999999</v>
@@ -6833,17 +6426,14 @@
       <c r="I149">
         <v>3.9580000000000002</v>
       </c>
-      <c r="J149">
-        <v>2020</v>
-      </c>
-      <c r="K149" s="1">
-        <f t="shared" si="2"/>
+      <c r="J149" s="1">
+        <f t="shared" si="1"/>
         <v>3.5157162012907861</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>-4.1379999999999999</v>
@@ -6869,17 +6459,14 @@
       <c r="I150">
         <v>3.0270000000000001</v>
       </c>
-      <c r="J150">
-        <v>2021</v>
-      </c>
-      <c r="K150" s="1">
-        <f t="shared" si="2"/>
+      <c r="J150" s="1">
+        <f t="shared" si="1"/>
         <v>3.0931906626552097</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>1.3260000000000001</v>
@@ -6905,17 +6492,14 @@
       <c r="I151">
         <v>5.1539999999999999</v>
       </c>
-      <c r="J151">
-        <v>2021</v>
-      </c>
-      <c r="K151" s="1">
-        <f t="shared" si="2"/>
+      <c r="J151" s="1">
+        <f t="shared" si="1"/>
         <v>6.6970919403634754</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>-0.94499999999999995</v>
@@ -6941,17 +6525,14 @@
       <c r="I152">
         <v>4.0460000000000003</v>
       </c>
-      <c r="J152">
-        <v>2021</v>
-      </c>
-      <c r="K152" s="1">
-        <f t="shared" si="2"/>
+      <c r="J152" s="1">
+        <f t="shared" si="1"/>
         <v>3.747385816724802</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>-7.7229999999999999</v>
@@ -6977,17 +6558,14 @@
       <c r="I153">
         <v>3.86</v>
       </c>
-      <c r="J153">
-        <v>2021</v>
-      </c>
-      <c r="K153" s="1">
-        <f t="shared" si="2"/>
+      <c r="J153" s="1">
+        <f t="shared" si="1"/>
         <v>4.4227723841651301</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>-1.9690000000000001</v>
@@ -7013,17 +6591,14 @@
       <c r="I154">
         <v>4.3239999999999998</v>
       </c>
-      <c r="J154">
-        <v>2021</v>
-      </c>
-      <c r="K154" s="1">
-        <f t="shared" si="2"/>
+      <c r="J154" s="1">
+        <f t="shared" si="1"/>
         <v>4.3947084707022688</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>-4.1429999999999998</v>
@@ -7049,17 +6624,14 @@
       <c r="I155">
         <v>2.4860000000000002</v>
       </c>
-      <c r="J155">
-        <v>2021</v>
-      </c>
-      <c r="K155" s="1">
-        <f t="shared" si="2"/>
+      <c r="J155" s="1">
+        <f t="shared" si="1"/>
         <v>2.4737307180819013</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>-4.359</v>
@@ -7085,17 +6657,14 @@
       <c r="I156">
         <v>2.8</v>
       </c>
-      <c r="J156">
-        <v>2021</v>
-      </c>
-      <c r="K156" s="1">
-        <f t="shared" si="2"/>
+      <c r="J156" s="1">
+        <f t="shared" si="1"/>
         <v>2.77780149834288</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>-4.3209999999999997</v>
@@ -7121,17 +6690,14 @@
       <c r="I157">
         <v>2.9860000000000002</v>
       </c>
-      <c r="J157">
-        <v>2021</v>
-      </c>
-      <c r="K157" s="1">
-        <f t="shared" si="2"/>
+      <c r="J157" s="1">
+        <f t="shared" si="1"/>
         <v>2.7202518057623859</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>-3.3820000000000001</v>
@@ -7157,17 +6723,14 @@
       <c r="I158">
         <v>2.9790000000000001</v>
       </c>
-      <c r="J158">
-        <v>2020</v>
-      </c>
-      <c r="K158" s="1">
-        <f t="shared" si="2"/>
+      <c r="J158" s="1">
+        <f t="shared" si="1"/>
         <v>2.773494869461568</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>-0.28499999999999998</v>
@@ -7193,17 +6756,14 @@
       <c r="I159">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J159">
-        <v>2021</v>
-      </c>
-      <c r="K159" s="1">
-        <f t="shared" si="2"/>
+      <c r="J159" s="1">
+        <f t="shared" si="1"/>
         <v>3.7555648736334435</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>-6.3419999999999996</v>
@@ -7229,17 +6789,14 @@
       <c r="I160">
         <v>1.4</v>
       </c>
-      <c r="J160">
-        <v>2021</v>
-      </c>
-      <c r="K160" s="1">
-        <f t="shared" si="2"/>
+      <c r="J160" s="1">
+        <f t="shared" si="1"/>
         <v>1.3099288835737743</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>-6.5140000000000002</v>
@@ -7265,17 +6822,14 @@
       <c r="I161">
         <v>4.4320000000000004</v>
       </c>
-      <c r="J161">
-        <v>2018</v>
-      </c>
-      <c r="K161" s="1">
-        <f t="shared" si="2"/>
+      <c r="J161" s="1">
+        <f t="shared" si="1"/>
         <v>4.737854599996405</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>-10.823</v>
@@ -7301,17 +6855,14 @@
       <c r="I162">
         <v>1.746</v>
       </c>
-      <c r="J162">
-        <v>2021</v>
-      </c>
-      <c r="K162" s="1">
-        <f t="shared" si="2"/>
+      <c r="J162" s="1">
+        <f t="shared" si="1"/>
         <v>2.0706815009670088</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>-3.472</v>
@@ -7337,17 +6888,14 @@
       <c r="I163">
         <v>3.1219999999999999</v>
       </c>
-      <c r="J163">
-        <v>2021</v>
-      </c>
-      <c r="K163" s="1">
-        <f t="shared" si="2"/>
+      <c r="J163" s="1">
+        <f t="shared" si="1"/>
         <v>1.4153157632571745</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>-13.968999999999999</v>
@@ -7373,17 +6921,14 @@
       <c r="I164">
         <v>2.7</v>
       </c>
-      <c r="J164">
-        <v>2020</v>
-      </c>
-      <c r="K164" s="1">
-        <f t="shared" si="2"/>
+      <c r="J164" s="1">
+        <f t="shared" si="1"/>
         <v>3.4428378319875108</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>-24.364999999999998</v>
@@ -7409,17 +6954,14 @@
       <c r="I165">
         <v>1.4630000000000001</v>
       </c>
-      <c r="J165">
-        <v>2021</v>
-      </c>
-      <c r="K165" s="1">
-        <f t="shared" si="2"/>
+      <c r="J165" s="1">
+        <f t="shared" si="1"/>
         <v>2.9376426382698106</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>-5.3129999999999997</v>
@@ -7445,17 +6987,14 @@
       <c r="I166">
         <v>2.7</v>
       </c>
-      <c r="J166">
-        <v>2020</v>
-      </c>
-      <c r="K166" s="1">
-        <f t="shared" si="2"/>
+      <c r="J166" s="1">
+        <f t="shared" si="1"/>
         <v>3.9320938899022106</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167">
         <v>-3.63</v>
@@ -7481,17 +7020,14 @@
       <c r="I167">
         <v>5.9729999999999999</v>
       </c>
-      <c r="J167">
-        <v>2019</v>
-      </c>
-      <c r="K167" s="1">
-        <f t="shared" si="2"/>
+      <c r="J167" s="1">
+        <f t="shared" si="1"/>
         <v>5.4776879955427127</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168">
         <v>-15.906000000000001</v>
@@ -7517,17 +7053,14 @@
       <c r="I168">
         <v>3</v>
       </c>
-      <c r="J168">
-        <v>2020</v>
-      </c>
-      <c r="K168" s="1">
-        <f t="shared" si="2"/>
+      <c r="J168" s="1">
+        <f t="shared" si="1"/>
         <v>2.85848118716725</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169">
         <v>-2.17</v>
@@ -7553,17 +7086,14 @@
       <c r="I169">
         <v>1.9670000000000001</v>
       </c>
-      <c r="J169">
-        <v>2021</v>
-      </c>
-      <c r="K169" s="1">
-        <f t="shared" si="2"/>
+      <c r="J169" s="1">
+        <f t="shared" si="1"/>
         <v>1.6417700656033984</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>-2.5139999999999998</v>
@@ -7589,49 +7119,43 @@
       <c r="I170">
         <v>1.2</v>
       </c>
-      <c r="J170">
-        <v>2021</v>
-      </c>
-      <c r="K170" s="1">
-        <f t="shared" si="2"/>
+      <c r="J170" s="1">
+        <f t="shared" si="1"/>
         <v>1.3592579970878038</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171" t="s">
+        <v>2</v>
+      </c>
+      <c r="G171" t="s">
+        <v>2</v>
+      </c>
+      <c r="H171" t="s">
+        <v>2</v>
+      </c>
+      <c r="I171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>172</v>
-      </c>
-      <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s">
-        <v>3</v>
-      </c>
-      <c r="D171" t="s">
-        <v>3</v>
-      </c>
-      <c r="E171" t="s">
-        <v>3</v>
-      </c>
-      <c r="F171" t="s">
-        <v>3</v>
-      </c>
-      <c r="G171" t="s">
-        <v>3</v>
-      </c>
-      <c r="H171" t="s">
-        <v>3</v>
-      </c>
-      <c r="I171" t="s">
-        <v>3</v>
-      </c>
-      <c r="J171">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>173</v>
       </c>
       <c r="B172">
         <v>3.359</v>
@@ -7658,15 +7182,12 @@
         <v>2.0030000000000001</v>
       </c>
       <c r="J172">
-        <v>2021</v>
-      </c>
-      <c r="K172">
         <v>2.9701043189999998</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>4.3899999999999997</v>
@@ -7693,15 +7214,12 @@
         <v>3.96</v>
       </c>
       <c r="J173">
-        <v>2020</v>
-      </c>
-      <c r="K173">
         <v>4.9361100179999999</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174">
         <v>4.806</v>
@@ -7728,15 +7246,12 @@
         <v>6.9859999999999998</v>
       </c>
       <c r="J174">
-        <v>2021</v>
-      </c>
-      <c r="K174">
         <v>5.8520867169999997</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175">
         <v>-6.1950000000000003</v>
@@ -7763,15 +7278,12 @@
         <v>3.0329999999999999</v>
       </c>
       <c r="J175">
-        <v>2021</v>
-      </c>
-      <c r="K175">
         <v>3.0241067469999998</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>-8.5739999999999998</v>
@@ -7798,15 +7310,12 @@
         <v>3</v>
       </c>
       <c r="J176">
-        <v>2020</v>
-      </c>
-      <c r="K176">
         <v>2.7727865949999999</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>1.758</v>
@@ -7833,15 +7342,12 @@
         <v>6.5</v>
       </c>
       <c r="J177">
-        <v>2020</v>
-      </c>
-      <c r="K177">
         <v>6.1213260920000003</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>0.48899999999999999</v>
@@ -7868,15 +7374,12 @@
         <v>1.8340000000000001</v>
       </c>
       <c r="J178">
-        <v>2021</v>
-      </c>
-      <c r="K178">
         <v>1.0021556899999999</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179">
         <v>-7.3739999999999997</v>
@@ -7903,15 +7406,12 @@
         <v>1.641</v>
       </c>
       <c r="J179">
-        <v>2021</v>
-      </c>
-      <c r="K179">
         <v>2.2236730740000001</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180">
         <v>-8.7349999999999994</v>
@@ -7938,15 +7438,12 @@
         <v>2.597</v>
       </c>
       <c r="J180">
-        <v>2021</v>
-      </c>
-      <c r="K180">
         <v>2.4179824810000001</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181">
         <v>1.94</v>
@@ -7973,15 +7470,12 @@
         <v>3.0219999999999998</v>
       </c>
       <c r="J181">
-        <v>2021</v>
-      </c>
-      <c r="K181">
         <v>4.4396851740000001</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182">
         <v>-2.9540000000000002</v>
@@ -8008,15 +7502,12 @@
         <v>1.7230000000000001</v>
       </c>
       <c r="J182">
-        <v>2020</v>
-      </c>
-      <c r="K182">
         <v>2.2648067169999999</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183">
         <v>1.006</v>
@@ -8043,15 +7534,12 @@
         <v>3.5</v>
       </c>
       <c r="J183">
-        <v>2019</v>
-      </c>
-      <c r="K183">
         <v>3.432223247</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184">
         <v>-1.3879999999999999</v>
@@ -8078,15 +7566,12 @@
         <v>6.8049999999999997</v>
       </c>
       <c r="J184">
-        <v>2021</v>
-      </c>
-      <c r="K184">
         <v>6.2969833409999998</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>-3.7530000000000001</v>
@@ -8098,27 +7583,24 @@
         <v>-34.950000000000003</v>
       </c>
       <c r="E185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>3</v>
-      </c>
-      <c r="J185">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186">
         <v>-4.8</v>
@@ -8145,15 +7627,12 @@
         <v>4.2439999999999998</v>
       </c>
       <c r="J186">
-        <v>2020</v>
-      </c>
-      <c r="K186">
         <v>4.1526665989999998</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187">
         <v>-9.27</v>
@@ -8180,15 +7659,12 @@
         <v>1.5</v>
       </c>
       <c r="J187">
-        <v>2020</v>
-      </c>
-      <c r="K187">
         <v>2.5434456719999998</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188">
         <v>-3.4049999999999998</v>
@@ -8215,15 +7691,12 @@
         <v>1.855</v>
       </c>
       <c r="J188">
-        <v>2021</v>
-      </c>
-      <c r="K188">
         <v>2.1584616429999999</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189">
         <v>-6.1150000000000002</v>
@@ -8250,15 +7723,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J189">
-        <v>2020</v>
-      </c>
-      <c r="K189">
         <v>3.254671476</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190">
         <v>1.8859999999999999</v>
@@ -8285,15 +7755,12 @@
         <v>5.0469999999999997</v>
       </c>
       <c r="J190">
-        <v>2021</v>
-      </c>
-      <c r="K190">
         <v>5.3269069250000003</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>-5.3959999999999999</v>
@@ -8320,15 +7787,12 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="J191">
-        <v>2019</v>
-      </c>
-      <c r="K191">
         <v>2.6572387100000001</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>-29.992000000000001</v>
@@ -8343,24 +7807,21 @@
         <v>6.5419999999999998</v>
       </c>
       <c r="F192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H192" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>3</v>
-      </c>
-      <c r="J192">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>2.944</v>
@@ -8387,15 +7848,12 @@
         <v>6.8209999999999997</v>
       </c>
       <c r="J193">
-        <v>2021</v>
-      </c>
-      <c r="K193">
         <v>6.0690497729999997</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>-11.318</v>
@@ -8422,15 +7880,12 @@
         <v>2.0470000000000002</v>
       </c>
       <c r="J194">
-        <v>2021</v>
-      </c>
-      <c r="K194">
         <v>3.2848644349999998</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>-8.5</v>
@@ -8457,15 +7912,12 @@
         <v>5.5</v>
       </c>
       <c r="J195">
-        <v>2020</v>
-      </c>
-      <c r="K195">
         <v>4.1432243399999997</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>-2.7850000000000001</v>
@@ -8492,15 +7944,12 @@
         <v>5.0049999999999999</v>
       </c>
       <c r="J196">
-        <v>2021</v>
-      </c>
-      <c r="K196">
         <v>4.297845186</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>-5.1559999999999997</v>
@@ -8527,15 +7976,7 @@
         <v>2.9590000000000001</v>
       </c>
       <c r="J197">
-        <v>2019</v>
-      </c>
-      <c r="K197">
         <v>3.527061335</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -8544,21 +7985,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
         <v>200</v>
-      </c>
-      <c r="B1" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
